--- a/bioSample/bioSample_2550.xlsx
+++ b/bioSample/bioSample_2550.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_2550.xlsx
+++ b/bioSample/bioSample_2550.xlsx
@@ -88,127 +88,127 @@
     <t xml:space="preserve">CNAG_04352</t>
   </si>
   <si>
+    <t xml:space="preserve">TDY2154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_04807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDY2173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_05785</t>
+  </si>
+  <si>
     <t xml:space="preserve">G418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_04807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_05785</t>
   </si>
 </sst>
 </file>
@@ -223,6 +223,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -307,7 +308,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,9 +316,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="9.07"/>
@@ -449,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,10 +467,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>16</v>
@@ -498,10 +499,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>16</v>
@@ -530,10 +531,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>16</v>
@@ -562,10 +563,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>16</v>
@@ -594,10 +595,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>16</v>
@@ -626,10 +627,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>16</v>
@@ -658,10 +659,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>16</v>
@@ -690,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>16</v>
@@ -722,10 +723,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>16</v>
@@ -754,10 +755,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>16</v>
@@ -786,10 +787,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>16</v>
@@ -818,10 +819,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>16</v>
@@ -850,10 +851,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>16</v>
@@ -882,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>16</v>
@@ -914,10 +915,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>16</v>
@@ -946,10 +947,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>16</v>
@@ -978,10 +979,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>16</v>
@@ -1010,10 +1011,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>16</v>
@@ -1042,10 +1043,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>16</v>
@@ -1074,10 +1075,10 @@
         <v>13</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>62</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>16</v>
@@ -1182,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,10 +1200,10 @@
         <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>16</v>
@@ -1231,10 +1232,10 @@
         <v>13</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>16</v>
@@ -1263,10 +1264,10 @@
         <v>13</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>16</v>
@@ -1295,10 +1296,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>16</v>
@@ -1327,10 +1328,10 @@
         <v>13</v>
       </c>
       <c r="E32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>16</v>
@@ -1359,10 +1360,10 @@
         <v>13</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>16</v>
@@ -1391,10 +1392,10 @@
         <v>13</v>
       </c>
       <c r="E34" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>16</v>
@@ -1423,10 +1424,10 @@
         <v>13</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>16</v>
@@ -1455,10 +1456,10 @@
         <v>13</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>16</v>
@@ -1487,10 +1488,10 @@
         <v>13</v>
       </c>
       <c r="E37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>16</v>
@@ -1519,10 +1520,10 @@
         <v>13</v>
       </c>
       <c r="E38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>16</v>
@@ -1551,10 +1552,10 @@
         <v>13</v>
       </c>
       <c r="E39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>16</v>
@@ -1583,10 +1584,10 @@
         <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>16</v>
@@ -1615,10 +1616,10 @@
         <v>13</v>
       </c>
       <c r="E41" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>16</v>
@@ -1647,10 +1648,10 @@
         <v>13</v>
       </c>
       <c r="E42" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>16</v>
@@ -1679,10 +1680,10 @@
         <v>13</v>
       </c>
       <c r="E43" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>16</v>
@@ -1711,10 +1712,10 @@
         <v>13</v>
       </c>
       <c r="E44" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>16</v>
@@ -1743,10 +1744,10 @@
         <v>13</v>
       </c>
       <c r="E45" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>16</v>
@@ -1775,10 +1776,10 @@
         <v>13</v>
       </c>
       <c r="E46" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>16</v>
@@ -1807,10 +1808,10 @@
         <v>13</v>
       </c>
       <c r="E47" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>62</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>16</v>
